--- a/data/Recommendation vectors.xlsx
+++ b/data/Recommendation vectors.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\iambillmccann\repositories\misc_python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{367A5454-F61C-440D-89E1-89CD7B139CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8D089A-0357-4C39-8457-A40DBDE7B3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0720CFE5-524C-45F9-A5CB-B4A8306CBBE1}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{0720CFE5-524C-45F9-A5CB-B4A8306CBBE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="192">
   <si>
     <t>{</t>
   </si>
@@ -579,13 +580,46 @@
   </si>
   <si>
     <t>        "monthlyListeners": 0.144187468</t>
+  </si>
+  <si>
+    <t>vs Nico Acosta</t>
+  </si>
+  <si>
+    <t>vs Nevada</t>
+  </si>
+  <si>
+    <t>Deezer</t>
+  </si>
+  <si>
+    <t>TikTok</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Spotify</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,6 +640,12 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -628,12 +668,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,9 +1015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD14C67-32A9-45F9-9EC1-19E0CA134C5C}">
   <dimension ref="B2:D420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="A335" sqref="A335"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5570,6 +5613,163 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E51B91-4A9F-4315-B2D5-84E66F200E1A}">
+  <dimension ref="A2:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="3" width="15.3046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2.1366532480569301E-7</v>
+      </c>
+      <c r="C3">
+        <v>0.9</v>
+      </c>
+      <c r="D3" t="str">
+        <f>IF(C3&lt;B3,"Nevada","Nico")</f>
+        <v>Nico</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.75963546370370305</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D10" si="0">IF(C4&lt;B4,"Nevada","Nico")</f>
+        <v>Nevada</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.201504592085819</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>Nevada</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2.2679598404523801E-6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.30000092833333297</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>Nico</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>Nico</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>Nico</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>Nico</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10">
+        <v>0.95</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.45000125976491701</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>Nevada</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11">
+        <v>1.3880002071373601</v>
+      </c>
+      <c r="C11">
+        <v>1.3180903745657899</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
